--- a/data/trans_dic/P10_1-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P10_1-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con datos de teléfono móvil</t>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>86,89%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>85,54%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,67; 88,76</t>
+          <t>83,53; 88,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>83,52; 89,78</t>
+          <t>82,7; 89,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,86; 86,21</t>
+          <t>80,98; 85,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,19; 87,85</t>
+          <t>81,88; 87,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,99; 86,75</t>
+          <t>82,95; 86,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,84; 87,89</t>
+          <t>83,14; 87,46</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>86,09%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>86,27%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>81,24; 87,93</t>
+          <t>81,0; 87,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,67; 89,1</t>
+          <t>81,35; 89,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,62; 86,51</t>
+          <t>80,6; 86,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,26; 88,92</t>
+          <t>83,46; 89,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,76; 86,26</t>
+          <t>81,72; 86,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,83; 88,22</t>
+          <t>83,64; 88,53</t>
         </is>
       </c>
     </row>
@@ -766,17 +767,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>80,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>84,65%</t>
+          <t>85,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,61%</t>
+          <t>86,14%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>70,55; 86,09</t>
+          <t>71,69; 86,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>73,14; 91,05</t>
+          <t>79,34; 92,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,5; 86,45</t>
+          <t>74,12; 86,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,6; 90,12</t>
+          <t>77,37; 90,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,15; 85,46</t>
+          <t>75,27; 84,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,28; 89,34</t>
+          <t>81,56; 90,04</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>86,01%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>85,89%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,71; 87,0</t>
+          <t>82,58; 86,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,39; 88,35</t>
+          <t>83,79; 88,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,16; 84,91</t>
+          <t>81,14; 84,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,32; 87,46</t>
+          <t>83,56; 87,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,65; 85,41</t>
+          <t>82,67; 85,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,79; 87,22</t>
+          <t>84,4; 87,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con datos de teléfono móvil (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>575.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>669.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>594.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1244.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1091.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1416314</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1427992</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1496625</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1533232</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2912939</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2961224</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1369984; 1457315</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1366635; 1475144</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1450317; 1539056</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1481469; 1583610</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2845899; 2973831</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2878201; 3027669</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>469.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>398.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>993.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>846.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1174106</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1178192</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1178086</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1207644</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2352192</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2385836</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1123229; 1217081</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1117800; 1232120</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1136315; 1216634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1161279; 1245999</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2285172; 2411468</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2313009; 2448222</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>339515</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>368355</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>332838</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>350639</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>672353</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>718994</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>303106; 365642</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>335448; 390838</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>305292; 354936</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>318678; 371774</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>628304; 709219</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>680779; 751574</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1149.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>996.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1336.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1163.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2485.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2929935</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2974539</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3007549</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3091514</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5937485</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6066053</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2848612; 2996508</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2890449; 3048032</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2931202; 3068361</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3018783; 3155214</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5838620; 6030444</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5960352; 6176004</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>